--- a/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_equal_a_alpha_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_equal_a_alpha_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4150943396226415</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C3">
-        <v>0.5041666666666667</v>
+        <v>0.4968553459119497</v>
       </c>
       <c r="D3">
-        <v>0.4828897338403042</v>
+        <v>0.4979919678714859</v>
       </c>
       <c r="E3">
-        <v>0.4917695473251029</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.4785992217898833</v>
+        <v>0.5059288537549407</v>
       </c>
       <c r="G3">
         <v>0.4989775051124745</v>
       </c>
       <c r="H3">
-        <v>0.502</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4411764705882353</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="C4">
-        <v>0.5080321285140562</v>
+        <v>0.494908350305499</v>
       </c>
       <c r="D4">
-        <v>0.4697986577181208</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="E4">
-        <v>0.5021582733812949</v>
+        <v>0.5057142857142857</v>
       </c>
       <c r="F4">
-        <v>0.5032679738562091</v>
+        <v>0.4825174825174825</v>
       </c>
       <c r="G4">
-        <v>0.5063469675599436</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.51</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4216867469879518</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="D5">
-        <v>0.5357142857142857</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="E5">
-        <v>0.4949367088607595</v>
+        <v>0.5088607594936709</v>
       </c>
       <c r="F5">
-        <v>0.5463917525773195</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="G5">
-        <v>0.5031367628607277</v>
+        <v>0.5043804755944932</v>
       </c>
       <c r="H5">
-        <v>0.51</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4183673469387755</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C6">
-        <v>0.4991568296795953</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="D6">
-        <v>0.5287356321839081</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="E6">
-        <v>0.4895960832313341</v>
+        <v>0.5105853051058531</v>
       </c>
       <c r="F6">
-        <v>0.5600000000000001</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="G6">
-        <v>0.5005988023952096</v>
+        <v>0.5024630541871922</v>
       </c>
       <c r="H6">
-        <v>0.508</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4509803921568628</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C7">
-        <v>0.4984076433121019</v>
+        <v>0.4983974358974359</v>
       </c>
       <c r="D7">
-        <v>0.5542168674698795</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E7">
-        <v>0.5012165450121655</v>
+        <v>0.5109223300970874</v>
       </c>
       <c r="F7">
-        <v>0.5138888888888888</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="G7">
-        <v>0.5077473182359953</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>0.502</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5142857142857142</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C8">
-        <v>0.4874446085672083</v>
+        <v>0.4941002949852507</v>
       </c>
       <c r="D8">
-        <v>0.5567010309278351</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.5042527339003645</v>
       </c>
       <c r="F8">
-        <v>0.5104166666666666</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="G8">
-        <v>0.5084134615384616</v>
+        <v>0.5029655990510083</v>
       </c>
       <c r="H8">
         <v>0.498</v>
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5588235294117647</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="C9">
-        <v>0.4807692307692308</v>
+        <v>0.5020576131687243</v>
       </c>
       <c r="D9">
-        <v>0.6382978723404256</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="E9">
-        <v>0.5012345679012346</v>
+        <v>0.5127272727272727</v>
       </c>
       <c r="F9">
-        <v>0.4777777777777778</v>
+        <v>0.575</v>
       </c>
       <c r="G9">
-        <v>0.5104808877928483</v>
+        <v>0.496437054631829</v>
       </c>
       <c r="H9">
-        <v>0.494</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4787234042553192</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.4790874524714829</v>
+        <v>0.5019059720457433</v>
       </c>
       <c r="D10">
-        <v>0.550561797752809</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="E10">
-        <v>0.5012224938875306</v>
+        <v>0.525609756097561</v>
       </c>
       <c r="F10">
-        <v>0.4505494505494506</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="G10">
-        <v>0.51338199513382</v>
+        <v>0.4957780458383595</v>
       </c>
       <c r="H10">
-        <v>0.498</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4770642201834863</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="C11">
-        <v>0.4911660777385159</v>
+        <v>0.5070588235294118</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E11">
-        <v>0.5115712545676004</v>
+        <v>0.5214198286413708</v>
       </c>
       <c r="F11">
-        <v>0.4269662921348314</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="G11">
-        <v>0.5152625152625152</v>
+        <v>0.5036585365853659</v>
       </c>
       <c r="H11">
-        <v>0.492</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4851485148514851</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="C12">
-        <v>0.492622020431328</v>
+        <v>0.5131428571428571</v>
       </c>
       <c r="D12">
-        <v>0.5104166666666666</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="E12">
-        <v>0.5111386138613861</v>
+        <v>0.5110837438423645</v>
       </c>
       <c r="F12">
+        <v>0.4947368421052631</v>
+      </c>
+      <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="G12">
-        <v>0.5067817509247842</v>
-      </c>
       <c r="H12">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.48</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C13">
-        <v>0.4978723404255319</v>
+        <v>0.5010799136069114</v>
       </c>
       <c r="D13">
-        <v>0.5157894736842106</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E13">
-        <v>0.5118306351183064</v>
+        <v>0.5152998776009792</v>
       </c>
       <c r="F13">
-        <v>0.5531914893617021</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="G13">
-        <v>0.5012376237623762</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5217391304347826</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C14">
-        <v>0.5004965243296922</v>
+        <v>0.5045500505561172</v>
       </c>
       <c r="D14">
-        <v>0.46</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E14">
-        <v>0.5078979343863913</v>
+        <v>0.5171990171990172</v>
       </c>
       <c r="F14">
-        <v>0.4948453608247423</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="G14">
-        <v>0.5018181818181818</v>
+        <v>0.4969097651421508</v>
       </c>
       <c r="H14">
-        <v>0.496</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4456521739130435</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="C15">
-        <v>0.4939422180801491</v>
+        <v>0.5095969289827256</v>
       </c>
       <c r="D15">
-        <v>0.4767441860465116</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E15">
-        <v>0.5103030303030303</v>
+        <v>0.5115995115995116</v>
       </c>
       <c r="F15">
-        <v>0.4767441860465116</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G15">
-        <v>0.5018094089264173</v>
+        <v>0.5006075334143378</v>
       </c>
       <c r="H15">
-        <v>0.502</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4731182795698925</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="C16">
-        <v>0.4995563442768411</v>
+        <v>0.5099457504520796</v>
       </c>
       <c r="D16">
-        <v>0.5595238095238095</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="E16">
-        <v>0.5018094089264173</v>
+        <v>0.5185643564356436</v>
       </c>
       <c r="F16">
-        <v>0.4235294117647059</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="G16">
-        <v>0.5072289156626506</v>
+        <v>0.4975669099756691</v>
       </c>
       <c r="H16">
-        <v>0.506</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5148514851485149</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C17">
-        <v>0.496196111580727</v>
+        <v>0.5102915951972555</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E17">
-        <v>0.4945717732207479</v>
+        <v>0.5181159420289855</v>
       </c>
       <c r="F17">
-        <v>0.5189873417721519</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="G17">
-        <v>0.5024096385542168</v>
+        <v>0.4916467780429594</v>
       </c>
       <c r="H17">
-        <v>0.536</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.53</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="C18">
-        <v>0.4959415584415585</v>
+        <v>0.5097244732576985</v>
       </c>
       <c r="D18">
-        <v>0.5512820512820513</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E18">
-        <v>0.4945717732207479</v>
+        <v>0.513126491646778</v>
       </c>
       <c r="F18">
-        <v>0.5542168674698795</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="G18">
-        <v>0.4904306220095694</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="H18">
-        <v>0.532</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4782608695652174</v>
+        <v>0.512396694214876</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>0.5126382306477093</v>
       </c>
       <c r="D19">
-        <v>0.4875</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E19">
-        <v>0.4884848484848485</v>
+        <v>0.5215311004784688</v>
       </c>
       <c r="F19">
-        <v>0.5764705882352941</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="G19">
-        <v>0.4896467722289891</v>
+        <v>0.4783132530120482</v>
       </c>
       <c r="H19">
-        <v>0.524</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5490196078431373</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="C20">
-        <v>0.5026099925428784</v>
+        <v>0.5076103500761036</v>
       </c>
       <c r="D20">
-        <v>0.4318181818181818</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E20">
-        <v>0.4939172749391728</v>
+        <v>0.5151883353584447</v>
       </c>
       <c r="F20">
-        <v>0.5578947368421052</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="G20">
-        <v>0.4908424908424908</v>
+        <v>0.4707317073170731</v>
       </c>
       <c r="H20">
-        <v>0.526</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4951456310679612</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C21">
-        <v>0.5007246376811594</v>
+        <v>0.5061195104391649</v>
       </c>
       <c r="D21">
-        <v>0.4651162790697674</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="E21">
-        <v>0.4951100244498777</v>
+        <v>0.5170731707317073</v>
       </c>
       <c r="F21">
-        <v>0.5473684210526316</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="G21">
-        <v>0.5018450184501845</v>
+        <v>0.479368932038835</v>
       </c>
       <c r="H21">
-        <v>0.518</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5425531914893617</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="C22">
-        <v>0.5065653075328266</v>
+        <v>0.5063025210084033</v>
       </c>
       <c r="D22">
-        <v>0.3960396039603961</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="E22">
-        <v>0.4904306220095694</v>
+        <v>0.5087281795511222</v>
       </c>
       <c r="F22">
-        <v>0.4431818181818182</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="G22">
-        <v>0.4951690821256038</v>
+        <v>0.4784217016029593</v>
       </c>
       <c r="H22">
-        <v>0.524</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5053763440860215</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C23">
-        <v>0.5036303630363036</v>
+        <v>0.5063460253841016</v>
       </c>
       <c r="D23">
-        <v>0.4235294117647059</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="E23">
-        <v>0.4951807228915663</v>
+        <v>0.51</v>
       </c>
       <c r="F23">
-        <v>0.4936708860759494</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="G23">
-        <v>0.505338078291815</v>
+        <v>0.48854041013269</v>
       </c>
       <c r="H23">
-        <v>0.516</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5111111111111111</v>
+        <v>0.5625</v>
       </c>
       <c r="C24">
-        <v>0.508301404853129</v>
+        <v>0.508760545100584</v>
       </c>
       <c r="D24">
-        <v>0.4805194805194805</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E24">
-        <v>0.4854721549636804</v>
+        <v>0.5030826140567201</v>
       </c>
       <c r="F24">
-        <v>0.4886363636363636</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="G24">
-        <v>0.5048076923076923</v>
+        <v>0.4872417982989065</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5151515151515151</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="C25">
-        <v>0.5080246913580246</v>
+        <v>0.5012391573729864</v>
       </c>
       <c r="D25">
-        <v>0.4421052631578947</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="E25">
-        <v>0.4782082324455206</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="F25">
-        <v>0.4888888888888889</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="G25">
-        <v>0.4987745098039216</v>
+        <v>0.4861278648974668</v>
       </c>
       <c r="H25">
-        <v>0.506</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5327102803738317</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="C26">
-        <v>0.5045153521974715</v>
+        <v>0.5005959475566151</v>
       </c>
       <c r="D26">
-        <v>0.4883720930232558</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E26">
-        <v>0.4708798017348203</v>
+        <v>0.496969696969697</v>
       </c>
       <c r="F26">
-        <v>0.5411764705882353</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="G26">
-        <v>0.5006150061500615</v>
+        <v>0.4796650717703349</v>
       </c>
       <c r="H26">
-        <v>0.502</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.4752475247524752</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C27">
-        <v>0.5008695652173913</v>
+        <v>0.5008777062609713</v>
       </c>
       <c r="D27">
-        <v>0.5326086956521739</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="E27">
-        <v>0.4712918660287082</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="F27">
-        <v>0.5777777777777777</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="G27">
-        <v>0.4946236559139785</v>
+        <v>0.4873646209386281</v>
       </c>
       <c r="H27">
-        <v>0.508</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5047619047619047</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C28">
-        <v>0.503370786516854</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0.6142857142857143</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="E28">
-        <v>0.4788902291917974</v>
+        <v>0.491504854368932</v>
       </c>
       <c r="F28">
-        <v>0.4142857142857143</v>
+        <v>0.6391752577319587</v>
       </c>
       <c r="G28">
-        <v>0.4921780986762936</v>
+        <v>0.4921968787515006</v>
       </c>
       <c r="H28">
-        <v>0.518</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5445544554455446</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C29">
-        <v>0.503800217155266</v>
+        <v>0.4942339373970346</v>
       </c>
       <c r="D29">
-        <v>0.5977011494252874</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="E29">
-        <v>0.4764150943396226</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F29">
-        <v>0.4</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="G29">
-        <v>0.5023584905660378</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="H29">
-        <v>0.514</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5405405405405406</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="C30">
-        <v>0.5023721665788087</v>
+        <v>0.4922666666666667</v>
       </c>
       <c r="D30">
-        <v>0.5256410256410257</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E30">
-        <v>0.4717887154861945</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="F30">
-        <v>0.4634146341463415</v>
+        <v>0.5</v>
       </c>
       <c r="G30">
-        <v>0.496969696969697</v>
+        <v>0.5133495145631068</v>
       </c>
       <c r="H30">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.514018691588785</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C31">
-        <v>0.4992191566892243</v>
+        <v>0.4899016053858105</v>
       </c>
       <c r="D31">
-        <v>0.5425531914893617</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="E31">
-        <v>0.4641089108910891</v>
+        <v>0.5061274509803921</v>
       </c>
       <c r="F31">
-        <v>0.5666666666666667</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="G31">
-        <v>0.484472049689441</v>
+        <v>0.5171149144254279</v>
       </c>
       <c r="H31">
-        <v>0.546</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5229357798165137</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C32">
-        <v>0.5007610350076104</v>
+        <v>0.4927245358755645</v>
       </c>
       <c r="D32">
-        <v>0.5614035087719298</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="E32">
-        <v>0.4626108998732573</v>
+        <v>0.513317191283293</v>
       </c>
       <c r="F32">
-        <v>0.584070796460177</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="G32">
-        <v>0.4773299748110831</v>
+        <v>0.5186074429771909</v>
       </c>
       <c r="H32">
-        <v>0.534</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5391304347826087</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="C33">
-        <v>0.5019723865877712</v>
+        <v>0.4909358157765801</v>
       </c>
       <c r="D33">
-        <v>0.5765765765765766</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="E33">
-        <v>0.4665825977301387</v>
+        <v>0.51278928136419</v>
       </c>
       <c r="F33">
-        <v>0.4910714285714285</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G33">
-        <v>0.4798488664987405</v>
+        <v>0.5144578313253012</v>
       </c>
       <c r="H33">
-        <v>0.536</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4660194174757282</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="C34">
-        <v>0.5040885040885041</v>
+        <v>0.4911862791805622</v>
       </c>
       <c r="D34">
-        <v>0.4431818181818182</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="E34">
-        <v>0.4684014869888476</v>
+        <v>0.5181159420289855</v>
       </c>
       <c r="F34">
-        <v>0.5346534653465347</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="G34">
-        <v>0.4950372208436725</v>
+        <v>0.5054282267792521</v>
       </c>
       <c r="H34">
-        <v>0.522</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4757281553398058</v>
+        <v>0.5338983050847458</v>
       </c>
       <c r="C35">
-        <v>0.50814332247557</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="D35">
-        <v>0.4137931034482759</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="E35">
-        <v>0.4861278648974668</v>
+        <v>0.5165238678090576</v>
       </c>
       <c r="F35">
-        <v>0.4742268041237113</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="G35">
-        <v>0.4914425427872861</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="H35">
-        <v>0.508</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.504950495049505</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="C36">
-        <v>0.5074559421599638</v>
+        <v>0.4865358283888636</v>
       </c>
       <c r="D36">
-        <v>0.4651162790697674</v>
+        <v>0.5625</v>
       </c>
       <c r="E36">
-        <v>0.4791418355184744</v>
+        <v>0.5234567901234568</v>
       </c>
       <c r="F36">
-        <v>0.4382022471910113</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="G36">
-        <v>0.4945717732207479</v>
+        <v>0.5121654501216545</v>
       </c>
       <c r="H36">
-        <v>0.514</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4946236559139785</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C37">
-        <v>0.5065847234416154</v>
+        <v>0.4897777777777778</v>
       </c>
       <c r="D37">
-        <v>0.4675324675324675</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="E37">
-        <v>0.4739336492890995</v>
+        <v>0.5251533742331288</v>
       </c>
       <c r="F37">
-        <v>0.4634146341463415</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="G37">
-        <v>0.495249406175772</v>
+        <v>0.5091575091575091</v>
       </c>
       <c r="H37">
-        <v>0.502</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4905660377358491</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="C38">
-        <v>0.5064102564102564</v>
+        <v>0.4928167174575533</v>
       </c>
       <c r="D38">
-        <v>0.4444444444444444</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="E38">
-        <v>0.4684898929845422</v>
+        <v>0.5282555282555282</v>
       </c>
       <c r="F38">
-        <v>0.4936708860759494</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="G38">
-        <v>0.4970131421744325</v>
+        <v>0.5187032418952618</v>
       </c>
       <c r="H38">
-        <v>0.498</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4912280701754386</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="C39">
-        <v>0.5065098698026039</v>
+        <v>0.4910865874363328</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E39">
-        <v>0.4712918660287082</v>
+        <v>0.5317848410757946</v>
       </c>
       <c r="F39">
-        <v>0.5294117647058824</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="G39">
-        <v>0.4939759036144578</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H39">
-        <v>0.49</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="C40">
+        <v>0.4918851435705368</v>
+      </c>
+      <c r="D40">
         <v>0.5</v>
       </c>
-      <c r="C40">
-        <v>0.5076288659793814</v>
-      </c>
-      <c r="D40">
-        <v>0.4893617021276596</v>
-      </c>
       <c r="E40">
-        <v>0.4725274725274725</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="F40">
-        <v>0.5056179775280899</v>
+        <v>0.4125</v>
       </c>
       <c r="G40">
-        <v>0.4957472660996355</v>
+        <v>0.5206310679611651</v>
       </c>
       <c r="H40">
-        <v>0.494</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4961240310077519</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C41">
-        <v>0.5052334943639292</v>
+        <v>0.4951219512195122</v>
       </c>
       <c r="D41">
-        <v>0.4835164835164835</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="E41">
-        <v>0.4774114774114774</v>
+        <v>0.5332527206771464</v>
       </c>
       <c r="F41">
-        <v>0.4736842105263158</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="G41">
-        <v>0.496969696969697</v>
+        <v>0.5253012048192771</v>
       </c>
       <c r="H41">
-        <v>0.492</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4453781512605042</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="C42">
-        <v>0.5065140150019739</v>
+        <v>0.4911032028469751</v>
       </c>
       <c r="D42">
-        <v>0.550561797752809</v>
+        <v>0.4375</v>
       </c>
       <c r="E42">
-        <v>0.4802395209580838</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="F42">
-        <v>0.4367816091954023</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
-        <v>0.4921968787515006</v>
+        <v>0.5190930787589498</v>
       </c>
       <c r="H42">
-        <v>0.496</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4351851851851852</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="C43">
-        <v>0.5075260517174836</v>
+        <v>0.4920696324951644</v>
       </c>
       <c r="D43">
-        <v>0.4810126582278481</v>
+        <v>0.5375</v>
       </c>
       <c r="E43">
-        <v>0.4757869249394673</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="F43">
-        <v>0.4285714285714285</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G43">
-        <v>0.4945717732207479</v>
+        <v>0.5160523186682521</v>
       </c>
       <c r="H43">
-        <v>0.488</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1521,22 +1521,22 @@
         <v>0.5046728971962616</v>
       </c>
       <c r="C44">
-        <v>0.5066162570888468</v>
+        <v>0.4935703479576399</v>
       </c>
       <c r="D44">
-        <v>0.5222222222222223</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="E44">
-        <v>0.4735547355473555</v>
+        <v>0.5132850241545893</v>
       </c>
       <c r="F44">
-        <v>0.5402298850574713</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="G44">
-        <v>0.491504854368932</v>
+        <v>0.5203349282296651</v>
       </c>
       <c r="H44">
-        <v>0.486</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5145631067961165</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C45">
-        <v>0.5029542097488922</v>
+        <v>0.4957201339784146</v>
       </c>
       <c r="D45">
-        <v>0.5566037735849056</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E45">
-        <v>0.4736842105263158</v>
+        <v>0.5189718482252142</v>
       </c>
       <c r="F45">
-        <v>0.5576923076923077</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="G45">
-        <v>0.4817073170731707</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H45">
-        <v>0.49</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5142857142857142</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C46">
-        <v>0.5023576351106275</v>
+        <v>0.4954429456799125</v>
       </c>
       <c r="D46">
-        <v>0.5510204081632653</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="E46">
-        <v>0.4801488833746898</v>
+        <v>0.5153374233128835</v>
       </c>
       <c r="F46">
-        <v>0.5172413793103449</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="G46">
-        <v>0.4826732673267327</v>
+        <v>0.5182926829268293</v>
       </c>
       <c r="H46">
-        <v>0.484</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5535714285714286</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="C47">
-        <v>0.5001773678609436</v>
+        <v>0.4946581196581197</v>
       </c>
       <c r="D47">
-        <v>0.4705882352941176</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="E47">
-        <v>0.4864864864864865</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="F47">
-        <v>0.4476190476190476</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G47">
-        <v>0.4909310761789601</v>
+        <v>0.5254854368932039</v>
       </c>
       <c r="H47">
-        <v>0.476</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4893617021276596</v>
+        <v>0.40625</v>
       </c>
       <c r="C48">
-        <v>0.4994778976679429</v>
+        <v>0.4963376351587025</v>
       </c>
       <c r="D48">
-        <v>0.5348837209302325</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="E48">
-        <v>0.4908869987849332</v>
+        <v>0.5207317073170732</v>
       </c>
       <c r="F48">
-        <v>0.4888888888888889</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="G48">
-        <v>0.4920828258221681</v>
+        <v>0.5249088699878494</v>
       </c>
       <c r="H48">
-        <v>0.476</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4591836734693878</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="C49">
-        <v>0.4996594005449591</v>
+        <v>0.5001712915381981</v>
       </c>
       <c r="D49">
-        <v>0.4767441860465116</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="E49">
-        <v>0.4896467722289891</v>
+        <v>0.5139393939393939</v>
       </c>
       <c r="F49">
-        <v>0.5802469135802469</v>
+        <v>0.43</v>
       </c>
       <c r="G49">
-        <v>0.4841075794621027</v>
+        <v>0.5207823960880196</v>
       </c>
       <c r="H49">
-        <v>0.478</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4905660377358491</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C50">
-        <v>0.5020053475935828</v>
+        <v>0.4976713240186294</v>
       </c>
       <c r="D50">
-        <v>0.5607476635514018</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
-        <v>0.4957369062119367</v>
+        <v>0.5077105575326216</v>
       </c>
       <c r="F50">
-        <v>0.5514018691588785</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="G50">
-        <v>0.4824667472793229</v>
+        <v>0.5162454873646209</v>
       </c>
       <c r="H50">
-        <v>0.476</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5327102803738317</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C51">
-        <v>0.499009900990099</v>
+        <v>0.4957599478147423</v>
       </c>
       <c r="D51">
-        <v>0.4631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E51">
-        <v>0.4912718204488778</v>
+        <v>0.4988290398126464</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="G51">
-        <v>0.4837905236907731</v>
+        <v>0.5082547169811321</v>
       </c>
       <c r="H51">
-        <v>0.486</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="C52">
-        <v>0.4964332036316472</v>
+        <v>0.4971005154639175</v>
       </c>
       <c r="D52">
-        <v>0.5272727272727272</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E52">
-        <v>0.5006180469715699</v>
+        <v>0.4869976359338061</v>
       </c>
       <c r="F52">
-        <v>0.5339805825242718</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="G52">
-        <v>0.4863861386138614</v>
+        <v>0.505338078291815</v>
       </c>
       <c r="H52">
-        <v>0.488</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5217391304347826</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="C53">
-        <v>0.4969831692600826</v>
+        <v>0.5001585791309864</v>
       </c>
       <c r="D53">
-        <v>0.5600000000000001</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="E53">
-        <v>0.4975429975429975</v>
+        <v>0.4946871310507674</v>
       </c>
       <c r="F53">
-        <v>0.4842105263157895</v>
+        <v>0.6867469879518072</v>
       </c>
       <c r="G53">
-        <v>0.4848116646415553</v>
+        <v>0.5017835909631391</v>
       </c>
       <c r="H53">
-        <v>0.484</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5346534653465347</v>
+        <v>0.4660194174757282</v>
       </c>
       <c r="C54">
-        <v>0.4959627329192546</v>
+        <v>0.5006261740763932</v>
       </c>
       <c r="D54">
-        <v>0.5057471264367817</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="E54">
-        <v>0.4993924665856622</v>
+        <v>0.4908424908424908</v>
       </c>
       <c r="F54">
-        <v>0.4875</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="G54">
-        <v>0.4921592279855247</v>
+        <v>0.5054811205846529</v>
       </c>
       <c r="H54">
-        <v>0.48</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="C55">
-        <v>0.4960122699386503</v>
+        <v>0.4996936274509804</v>
       </c>
       <c r="D55">
-        <v>0.5222222222222223</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="E55">
-        <v>0.5073170731707317</v>
+        <v>0.4919653893695921</v>
       </c>
       <c r="F55">
-        <v>0.4523809523809524</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="G55">
-        <v>0.4921402660217654</v>
+        <v>0.5194647201946472</v>
       </c>
       <c r="H55">
-        <v>0.484</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.485981308411215</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="C56">
-        <v>0.4965351009340163</v>
+        <v>0.4993979530403371</v>
       </c>
       <c r="D56">
-        <v>0.4574468085106383</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="E56">
-        <v>0.503037667071689</v>
+        <v>0.4864197530864198</v>
       </c>
       <c r="F56">
-        <v>0.4574468085106383</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="G56">
-        <v>0.4945978391356542</v>
+        <v>0.5210396039603961</v>
       </c>
       <c r="H56">
-        <v>0.484</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5178571428571429</v>
+        <v>0.51</v>
       </c>
       <c r="C57">
-        <v>0.4983722994968925</v>
+        <v>0.5001486767766875</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E57">
-        <v>0.5108173076923077</v>
+        <v>0.4827160493827161</v>
       </c>
       <c r="F57">
-        <v>0.524390243902439</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="G57">
-        <v>0.4922155688622755</v>
+        <v>0.5153751537515375</v>
       </c>
       <c r="H57">
-        <v>0.478</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5321100917431193</v>
+        <v>0.4672897196261682</v>
       </c>
       <c r="C58">
-        <v>0.4967911318553092</v>
+        <v>0.5002923976608187</v>
       </c>
       <c r="D58">
-        <v>0.4625</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>0.4913366336633663</v>
       </c>
       <c r="F58">
-        <v>0.5056179775280899</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="G58">
-        <v>0.4904306220095694</v>
+        <v>0.516728624535316</v>
       </c>
       <c r="H58">
-        <v>0.504</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5423728813559322</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C59">
-        <v>0.4961083885846065</v>
+        <v>0.5005777007510109</v>
       </c>
       <c r="D59">
-        <v>0.5232558139534884</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E59">
-        <v>0.4852216748768473</v>
+        <v>0.4826302729528536</v>
       </c>
       <c r="F59">
-        <v>0.5714285714285714</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G59">
-        <v>0.4869240348692404</v>
+        <v>0.515451174289246</v>
       </c>
       <c r="H59">
-        <v>0.518</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4957983193277311</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C60">
-        <v>0.4946053378762067</v>
+        <v>0.4988700564971751</v>
       </c>
       <c r="D60">
-        <v>0.5288461538461539</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="E60">
-        <v>0.4815724815724816</v>
+        <v>0.4794685990338164</v>
       </c>
       <c r="F60">
-        <v>0.6283185840707964</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="G60">
-        <v>0.486284289276808</v>
+        <v>0.5115151515151515</v>
       </c>
       <c r="H60">
-        <v>0.52</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.504</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C61">
-        <v>0.4966461710452767</v>
+        <v>0.5020850708924104</v>
       </c>
       <c r="D61">
-        <v>0.5393258426966292</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="E61">
-        <v>0.4760736196319019</v>
+        <v>0.4771634615384616</v>
       </c>
       <c r="F61">
-        <v>0.5408163265306123</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="G61">
-        <v>0.4987593052109181</v>
+        <v>0.5071599045346062</v>
       </c>
       <c r="H61">
-        <v>0.514</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5078125</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="C62">
-        <v>0.4976680384087792</v>
+        <v>0.4995891536565324</v>
       </c>
       <c r="D62">
-        <v>0.5425531914893617</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E62">
-        <v>0.4803804994054697</v>
+        <v>0.4799054373522459</v>
       </c>
       <c r="F62">
-        <v>0.5894736842105263</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="G62">
-        <v>0.5120192307692307</v>
+        <v>0.5011904761904762</v>
       </c>
       <c r="H62">
-        <v>0.514</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5526315789473685</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="C63">
-        <v>0.4993234100135318</v>
+        <v>0.4982446664866325</v>
       </c>
       <c r="D63">
-        <v>0.4696969696969697</v>
+        <v>0.5375</v>
       </c>
       <c r="E63">
-        <v>0.4771634615384616</v>
+        <v>0.4845605700712589</v>
       </c>
       <c r="F63">
-        <v>0.5402298850574713</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G63">
-        <v>0.515625</v>
+        <v>0.4969915764139591</v>
       </c>
       <c r="H63">
-        <v>0.514</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.4778761061946903</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C64">
-        <v>0.4984025559105431</v>
+        <v>0.5004005340453939</v>
       </c>
       <c r="D64">
-        <v>0.3875</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E64">
-        <v>0.4780023781212842</v>
+        <v>0.471445929526124</v>
       </c>
       <c r="F64">
-        <v>0.5057471264367817</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="G64">
-        <v>0.5213154689403167</v>
+        <v>0.5049261083743842</v>
       </c>
       <c r="H64">
-        <v>0.52</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4782608695652174</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="C65">
-        <v>0.501444707118466</v>
+        <v>0.4996059889676911</v>
       </c>
       <c r="D65">
-        <v>0.4367816091954023</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="E65">
-        <v>0.4750911300121506</v>
+        <v>0.4734939759036145</v>
       </c>
       <c r="F65">
-        <v>0.5106382978723404</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="G65">
-        <v>0.5201465201465202</v>
+        <v>0.503037667071689</v>
       </c>
       <c r="H65">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5145631067961165</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C66">
-        <v>0.5029800466442084</v>
+        <v>0.5010362694300519</v>
       </c>
       <c r="D66">
-        <v>0.4380952380952381</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E66">
-        <v>0.4634146341463415</v>
+        <v>0.4665856622114216</v>
       </c>
       <c r="F66">
-        <v>0.5247524752475248</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="G66">
-        <v>0.5233415233415234</v>
+        <v>0.4933494558645707</v>
       </c>
       <c r="H66">
-        <v>0.522</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4947368421052631</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="C67">
-        <v>0.5013991350801322</v>
+        <v>0.5024228513134404</v>
       </c>
       <c r="D67">
-        <v>0.3883495145631068</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="E67">
-        <v>0.4661746617466175</v>
+        <v>0.4769975786924939</v>
       </c>
       <c r="F67">
-        <v>0.5555555555555556</v>
+        <v>0.5760869565217391</v>
       </c>
       <c r="G67">
-        <v>0.5225885225885226</v>
+        <v>0.4969915764139591</v>
       </c>
       <c r="H67">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5151515151515151</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="C68">
-        <v>0.502377972465582</v>
+        <v>0.5025100401606426</v>
       </c>
       <c r="D68">
-        <v>0.4526315789473684</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E68">
-        <v>0.4724602203182375</v>
+        <v>0.4673123486682809</v>
       </c>
       <c r="F68">
-        <v>0.5232558139534884</v>
+        <v>0.5</v>
       </c>
       <c r="G68">
-        <v>0.5286236297198539</v>
+        <v>0.4927184466019418</v>
       </c>
       <c r="H68">
-        <v>0.492</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5046728971962616</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="C69">
-        <v>0.5019811788013868</v>
+        <v>0.5017335314512135</v>
       </c>
       <c r="D69">
-        <v>0.4081632653061225</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="E69">
-        <v>0.4673242909987669</v>
+        <v>0.4656019656019656</v>
       </c>
       <c r="F69">
-        <v>0.4606741573033708</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="G69">
-        <v>0.5207317073170732</v>
+        <v>0.4987714987714988</v>
       </c>
       <c r="H69">
-        <v>0.508</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4909090909090909</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="C70">
-        <v>0.5012254901960784</v>
+        <v>0.5030689909157869</v>
       </c>
       <c r="D70">
-        <v>0.45</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="E70">
-        <v>0.4769038701622971</v>
+        <v>0.4727722772277227</v>
       </c>
       <c r="F70">
-        <v>0.5052631578947369</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="G70">
-        <v>0.5191122071516646</v>
+        <v>0.4975247524752475</v>
       </c>
       <c r="H70">
-        <v>0.494</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5423728813559322</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="C71">
-        <v>0.5021802325581395</v>
+        <v>0.5038891589693729</v>
       </c>
       <c r="D71">
-        <v>0.495049504950495</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="E71">
-        <v>0.4713216957605985</v>
+        <v>0.4596977329974811</v>
       </c>
       <c r="F71">
-        <v>0.4175824175824176</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G71">
-        <v>0.5111386138613861</v>
+        <v>0.5099750623441397</v>
       </c>
       <c r="H71">
-        <v>0.494</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5178571428571429</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="C72">
-        <v>0.5004777830864787</v>
+        <v>0.5031026252983294</v>
       </c>
       <c r="D72">
-        <v>0.4842105263157895</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E72">
-        <v>0.4724602203182375</v>
+        <v>0.4652605459057072</v>
       </c>
       <c r="F72">
-        <v>0.4725274725274725</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G72">
-        <v>0.5162846803377563</v>
+        <v>0.5</v>
       </c>
       <c r="H72">
-        <v>0.488</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.4854368932038835</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C73">
-        <v>0.5015312131919906</v>
+        <v>0.5031832115067201</v>
       </c>
       <c r="D73">
-        <v>0.5185185185185185</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="E73">
-        <v>0.4757869249394673</v>
+        <v>0.4638036809815951</v>
       </c>
       <c r="F73">
-        <v>0.4651162790697674</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="G73">
-        <v>0.5144578313253012</v>
+        <v>0.4969097651421508</v>
       </c>
       <c r="H73">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C74">
-        <v>0.5027777777777778</v>
+        <v>0.500814521759367</v>
       </c>
       <c r="D74">
-        <v>0.4895833333333333</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="E74">
-        <v>0.4791914387633769</v>
+        <v>0.4608904933814681</v>
       </c>
       <c r="F74">
-        <v>0.4130434782608696</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="G74">
-        <v>0.5107655502392344</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="H74">
-        <v>0.49</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5643564356435643</v>
+        <v>0.5</v>
       </c>
       <c r="C75">
-        <v>0.5030871255431054</v>
+        <v>0.5016091954022989</v>
       </c>
       <c r="D75">
-        <v>0.4819277108433735</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E75">
-        <v>0.4818840579710145</v>
+        <v>0.4765906362545018</v>
       </c>
       <c r="F75">
-        <v>0.367816091954023</v>
+        <v>0.5</v>
       </c>
       <c r="G75">
-        <v>0.5036057692307693</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="H75">
-        <v>0.51</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5225225225225225</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="C76">
-        <v>0.5004508566275925</v>
+        <v>0.5011373976342129</v>
       </c>
       <c r="D76">
-        <v>0.4352941176470588</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="E76">
-        <v>0.4885954381752701</v>
+        <v>0.4825930372148859</v>
       </c>
       <c r="F76">
-        <v>0.4285714285714285</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="G76">
-        <v>0.5054282267792521</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="H76">
-        <v>0.516</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5765765765765766</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C77">
-        <v>0.5</v>
+        <v>0.5013458950201884</v>
       </c>
       <c r="D77">
-        <v>0.5232558139534884</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="E77">
-        <v>0.4903846153846154</v>
+        <v>0.4812575574365175</v>
       </c>
       <c r="F77">
-        <v>0.4197530864197531</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="G77">
-        <v>0.4987893462469734</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="H77">
-        <v>0.502</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.48</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="C78">
-        <v>0.4988972209969122</v>
+        <v>0.5008849557522124</v>
       </c>
       <c r="D78">
-        <v>0.5764705882352941</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="E78">
-        <v>0.4915254237288136</v>
+        <v>0.4805352798053528</v>
       </c>
       <c r="F78">
-        <v>0.4382022471910113</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="G78">
-        <v>0.4939903846153846</v>
+        <v>0.5042424242424243</v>
       </c>
       <c r="H78">
-        <v>0.494</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5473684210526316</v>
+        <v>0.4414414414414414</v>
       </c>
       <c r="C79">
-        <v>0.5018514484861686</v>
+        <v>0.5009831767533319</v>
       </c>
       <c r="D79">
-        <v>0.5288461538461539</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E79">
-        <v>0.4883148831488315</v>
+        <v>0.4825090470446321</v>
       </c>
       <c r="F79">
-        <v>0.4137931034482759</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="G79">
-        <v>0.5</v>
+        <v>0.5066344993968637</v>
       </c>
       <c r="H79">
-        <v>0.478</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5339805825242718</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C80">
-        <v>0.5004306632213609</v>
+        <v>0.5011881615899763</v>
       </c>
       <c r="D80">
-        <v>0.4814814814814815</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="E80">
-        <v>0.4924242424242424</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="F80">
-        <v>0.5247524752475248</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="G80">
-        <v>0.4962962962962963</v>
+        <v>0.4988066825775656</v>
       </c>
       <c r="H80">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5096153846153846</v>
+        <v>0.5086206896551724</v>
       </c>
       <c r="C81">
-        <v>0.5002134927412468</v>
+        <v>0.5001065870816457</v>
       </c>
       <c r="D81">
-        <v>0.4271844660194175</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="E81">
-        <v>0.4930643127364439</v>
+        <v>0.4993954050785974</v>
       </c>
       <c r="F81">
-        <v>0.5321100917431193</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="G81">
-        <v>0.4925</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="H81">
-        <v>0.472</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5306122448979592</v>
+        <v>0.4621848739495799</v>
       </c>
       <c r="C82">
-        <v>0.501582612365478</v>
+        <v>0.4994717937882949</v>
       </c>
       <c r="D82">
-        <v>0.4495412844036697</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="E82">
-        <v>0.5037220843672456</v>
+        <v>0.5091799265605875</v>
       </c>
       <c r="F82">
-        <v>0.5405405405405406</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="G82">
-        <v>0.4912718204488778</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="H82">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.4220183486238532</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="C83">
-        <v>0.5010407993338885</v>
+        <v>0.4994768780079514</v>
       </c>
       <c r="D83">
-        <v>0.46</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="E83">
-        <v>0.5061881188118812</v>
+        <v>0.520935960591133</v>
       </c>
       <c r="F83">
-        <v>0.5274725274725275</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="G83">
-        <v>0.4900990099009901</v>
+        <v>0.5048899755501223</v>
       </c>
       <c r="H83">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.4301075268817204</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="C84">
-        <v>0.5038073677711463</v>
+        <v>0.4977338277709106</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="E84">
-        <v>0.4933333333333333</v>
+        <v>0.5184729064039408</v>
       </c>
       <c r="F84">
-        <v>0.4705882352941176</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G84">
-        <v>0.4904076738609113</v>
+        <v>0.508495145631068</v>
       </c>
       <c r="H84">
-        <v>0.482</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4711538461538461</v>
+        <v>0.5963302752293578</v>
       </c>
       <c r="C85">
-        <v>0.5028432168968319</v>
+        <v>0.4989812550937245</v>
       </c>
       <c r="D85">
-        <v>0.5172413793103449</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="E85">
-        <v>0.4889705882352941</v>
+        <v>0.5079754601226993</v>
       </c>
       <c r="F85">
-        <v>0.5256410256410257</v>
+        <v>0.425</v>
       </c>
       <c r="G85">
-        <v>0.4945848375451263</v>
+        <v>0.5078979343863913</v>
       </c>
       <c r="H85">
-        <v>0.484</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4897959183673469</v>
+        <v>0.58</v>
       </c>
       <c r="C86">
-        <v>0.5014084507042254</v>
+        <v>0.4986860723670912</v>
       </c>
       <c r="D86">
-        <v>0.5555555555555556</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="E86">
-        <v>0.4841849148418492</v>
+        <v>0.5141800246609125</v>
       </c>
       <c r="F86">
-        <v>0.5</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="G86">
-        <v>0.4969915764139591</v>
+        <v>0.5048661800486618</v>
       </c>
       <c r="H86">
-        <v>0.482</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4403669724770642</v>
+        <v>0.54</v>
       </c>
       <c r="C87">
-        <v>0.5004969191015702</v>
+        <v>0.4990023942537909</v>
       </c>
       <c r="D87">
-        <v>0.5652173913043478</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="E87">
-        <v>0.4822085889570552</v>
+        <v>0.5110565110565111</v>
       </c>
       <c r="F87">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="G87">
-        <v>0.5</v>
+        <v>0.5055487053020962</v>
       </c>
       <c r="H87">
-        <v>0.48</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4344262295081967</v>
+        <v>0.5</v>
       </c>
       <c r="C88">
-        <v>0.5015748031496063</v>
+        <v>0.5005919494869772</v>
       </c>
       <c r="D88">
-        <v>0.5425531914893617</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="E88">
-        <v>0.4921212121212121</v>
+        <v>0.5054811205846529</v>
       </c>
       <c r="F88">
-        <v>0.4651162790697674</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="G88">
-        <v>0.5023866348448688</v>
+        <v>0.5012345679012346</v>
       </c>
       <c r="H88">
-        <v>0.488</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.4380165289256198</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C89">
-        <v>0.5012687878196369</v>
+        <v>0.5012668095887741</v>
       </c>
       <c r="D89">
-        <v>0.5157894736842106</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="E89">
-        <v>0.5</v>
+        <v>0.4927184466019418</v>
       </c>
       <c r="F89">
-        <v>0.379746835443038</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="G89">
-        <v>0.4988009592326139</v>
+        <v>0.5018450184501845</v>
       </c>
       <c r="H89">
-        <v>0.494</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,22 +2714,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4655172413793103</v>
+        <v>0.47</v>
       </c>
       <c r="C90">
-        <v>0.5010615711252654</v>
+        <v>0.5011605415860735</v>
       </c>
       <c r="D90">
-        <v>0.5227272727272727</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="E90">
-        <v>0.5024390243902439</v>
+        <v>0.491504854368932</v>
       </c>
       <c r="F90">
-        <v>0.3614457831325301</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="G90">
-        <v>0.5011933174224343</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="H90">
         <v>0.494</v>
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5272727272727272</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C91">
-        <v>0.5002864235249188</v>
+        <v>0.5019069412662091</v>
       </c>
       <c r="D91">
-        <v>0.4880952380952381</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="E91">
-        <v>0.5103280680437424</v>
+        <v>0.4897218863361548</v>
       </c>
       <c r="F91">
-        <v>0.4216867469879518</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G91">
-        <v>0.5042219541616405</v>
+        <v>0.4951807228915663</v>
       </c>
       <c r="H91">
-        <v>0.482</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5233644859813084</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="C92">
-        <v>0.4983018867924529</v>
+        <v>0.502261590652092</v>
       </c>
       <c r="D92">
-        <v>0.4352941176470588</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E92">
-        <v>0.5090470446320868</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="F92">
-        <v>0.4457831325301205</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="G92">
-        <v>0.4951807228915663</v>
+        <v>0.501219512195122</v>
       </c>
       <c r="H92">
-        <v>0.502</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.48</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="C93">
-        <v>0.4977586850952559</v>
+        <v>0.5011169024571854</v>
       </c>
       <c r="D93">
-        <v>0.4691358024691358</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="E93">
-        <v>0.5175332527206772</v>
+        <v>0.4873949579831933</v>
       </c>
       <c r="F93">
-        <v>0.5176470588235295</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G93">
-        <v>0.4813027744270205</v>
+        <v>0.5078787878787879</v>
       </c>
       <c r="H93">
-        <v>0.518</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.46</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C94">
-        <v>0.4985223494643517</v>
+        <v>0.5017479300827967</v>
       </c>
       <c r="D94">
-        <v>0.4827586206896552</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="E94">
-        <v>0.5115151515151515</v>
+        <v>0.4863582443653618</v>
       </c>
       <c r="F94">
-        <v>0.4578313253012048</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="G94">
-        <v>0.475669099756691</v>
+        <v>0.5041617122473246</v>
       </c>
       <c r="H94">
-        <v>0.536</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5306122448979592</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="C95">
-        <v>0.4983540599853694</v>
+        <v>0.5023792093704246</v>
       </c>
       <c r="D95">
-        <v>0.4777777777777778</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="E95">
-        <v>0.5182926829268293</v>
+        <v>0.4869358669833729</v>
       </c>
       <c r="F95">
-        <v>0.5543478260869565</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="G95">
-        <v>0.4709443099273607</v>
+        <v>0.5059952038369304</v>
       </c>
       <c r="H95">
-        <v>0.532</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5238095238095238</v>
+        <v>0.5118110236220472</v>
       </c>
       <c r="C96">
-        <v>0.497102499094531</v>
+        <v>0.5008168451624614</v>
       </c>
       <c r="D96">
-        <v>0.5824175824175825</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E96">
-        <v>0.5152998776009792</v>
+        <v>0.4802867383512545</v>
       </c>
       <c r="F96">
-        <v>0.4803921568627451</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="G96">
-        <v>0.4711656441717791</v>
+        <v>0.5102286401925391</v>
       </c>
       <c r="H96">
-        <v>0.522</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.4954128440366973</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="C97">
-        <v>0.4974874371859296</v>
+        <v>0.5012621709340065</v>
       </c>
       <c r="D97">
-        <v>0.5360824742268041</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="E97">
-        <v>0.501219512195122</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="F97">
-        <v>0.52</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="G97">
-        <v>0.4771322620519159</v>
+        <v>0.5104039167686658</v>
       </c>
       <c r="H97">
-        <v>0.516</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5145631067961165</v>
+        <v>0.5631067961165048</v>
       </c>
       <c r="C98">
-        <v>0.4984008528784648</v>
+        <v>0.5008028545941124</v>
       </c>
       <c r="D98">
+        <v>0.4951456310679612</v>
+      </c>
+      <c r="E98">
+        <v>0.4932844932844933</v>
+      </c>
+      <c r="F98">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="G98">
+        <v>0.5085158150851582</v>
+      </c>
+      <c r="H98">
         <v>0.48</v>
-      </c>
-      <c r="E98">
-        <v>0.5115712545676004</v>
-      </c>
-      <c r="F98">
-        <v>0.5806451612903226</v>
-      </c>
-      <c r="G98">
-        <v>0.4816625916870416</v>
-      </c>
-      <c r="H98">
-        <v>0.516</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5283018867924528</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C99">
-        <v>0.4984182776801406</v>
+        <v>0.4994718309859155</v>
       </c>
       <c r="D99">
-        <v>0.4731182795698925</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="E99">
-        <v>0.5152998776009792</v>
+        <v>0.4944237918215613</v>
       </c>
       <c r="F99">
-        <v>0.4777777777777778</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="G99">
-        <v>0.4854368932038835</v>
+        <v>0.5127582017010935</v>
       </c>
       <c r="H99">
-        <v>0.504</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.49</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="C100">
-        <v>0.4994778976679429</v>
+        <v>0.4988666085440279</v>
       </c>
       <c r="D100">
-        <v>0.4725274725274725</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="E100">
-        <v>0.5109223300970874</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="F100">
-        <v>0.5108695652173914</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G100">
-        <v>0.4867149758454106</v>
+        <v>0.5157766990291263</v>
       </c>
       <c r="H100">
-        <v>0.504</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.53</v>
+        <v>0.6082474226804123</v>
       </c>
       <c r="C101">
-        <v>0.499828060522696</v>
+        <v>0.496889042516419</v>
       </c>
       <c r="D101">
-        <v>0.3829787234042553</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E101">
-        <v>0.5108173076923077</v>
+        <v>0.5074257425742574</v>
       </c>
       <c r="F101">
         <v>0.5</v>
       </c>
       <c r="G101">
-        <v>0.4885954381752701</v>
+        <v>0.5127272727272727</v>
       </c>
       <c r="H101">
-        <v>0.486</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
